--- a/RTM/RTM.xlsx
+++ b/RTM/RTM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El-Wattaneya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti_9m_diploma\SWE\SWE_INTAKE43_Group2\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="3108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Requirement Tracibility Matrix</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Yousef Ahmed</t>
+  </si>
+  <si>
+    <t>Yousef_Ahmed</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -159,21 +162,21 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -181,14 +184,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -197,7 +200,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -811,25 +814,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="2" max="2" width="21.296875" customWidth="1"/>
-    <col min="3" max="3" width="17.69921875" customWidth="1"/>
-    <col min="4" max="4" width="28.69921875" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" customWidth="1"/>
-    <col min="6" max="6" width="29.19921875" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" customWidth="1"/>
-    <col min="8" max="8" width="18.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -842,7 +845,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -855,7 +858,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -870,7 +873,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -883,7 +886,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
@@ -898,11 +901,13 @@
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -915,7 +920,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -928,7 +933,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -959,7 +964,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -986,7 +991,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -1013,7 +1018,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>3</v>
       </c>
@@ -1040,7 +1045,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>4</v>
       </c>
@@ -1067,7 +1072,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>5</v>
       </c>
@@ -1094,7 +1099,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>6</v>
       </c>
@@ -1121,7 +1126,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -1148,7 +1153,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>8</v>
       </c>
@@ -1175,7 +1180,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1202,49 +1207,49 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F26" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F27" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F28" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F29" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F30" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F31" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F32" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>14</v>
       </c>
@@ -1260,22 +1265,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>17</v>
       </c>

--- a/RTM/RTM.xlsx
+++ b/RTM/RTM.xlsx
@@ -50,9 +50,6 @@
     <t>Scope Deliverable or Feature</t>
   </si>
   <si>
-    <t>Scope # Unique ID</t>
-  </si>
-  <si>
     <t>User Story or Work package</t>
   </si>
   <si>
@@ -144,13 +141,16 @@
   </si>
   <si>
     <t>Yousef_Ahmed</t>
+  </si>
+  <si>
+    <t>Ray Tracibility  Matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -481,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -532,6 +546,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,13 +839,14 @@
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="0.109375" customWidth="1"/>
+    <col min="11" max="11" width="18" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -845,14 +862,16 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -902,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -946,20 +965,18 @@
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -969,24 +986,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="8">
         <v>11</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
@@ -996,24 +1013,24 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="11">
         <v>12</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="12"/>
@@ -1023,24 +1040,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="11">
         <v>13</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
@@ -1050,24 +1067,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="11">
         <v>14</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="12"/>
@@ -1077,24 +1094,24 @@
         <v>5</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="11">
         <v>15</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
@@ -1104,24 +1121,24 @@
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="11">
         <v>16</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="12"/>
@@ -1131,24 +1148,24 @@
         <v>7</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11">
         <v>17</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
@@ -1158,24 +1175,24 @@
         <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="17">
         <v>18</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
@@ -1185,24 +1202,24 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="20">
         <v>19</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
@@ -1210,79 +1227,79 @@
     <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F26" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F27" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F28" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F29" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F30" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F31" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F32" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/RTM/RTM.xlsx
+++ b/RTM/RTM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="85">
   <si>
     <t>Requirement Tracibility Matrix</t>
   </si>
@@ -83,36 +83,9 @@
     <t>Statuses</t>
   </si>
   <si>
-    <t>press button 3  (one time ) to set clock</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
-    <t>press button 2 --&gt; press button 1 --&gt;to set the minutes  (each press min++)</t>
-  </si>
-  <si>
-    <t>press button 2  again --&gt; press button 1--&gt; to set the hours (each press hr++)</t>
-  </si>
-  <si>
-    <t>Watch switches between AM or PM automatically after 12</t>
-  </si>
-  <si>
-    <t>press button 3  (two times )  alarm mode</t>
-  </si>
-  <si>
-    <t>press button 3  (three times ) stopwatch mode</t>
-  </si>
-  <si>
-    <t>press button 1 --&gt; to reset</t>
-  </si>
-  <si>
-    <t>press button 2 --&gt; to start</t>
-  </si>
-  <si>
-    <t>press button 2  again --&gt; to stop</t>
-  </si>
-  <si>
     <t>Deliverable</t>
   </si>
   <si>
@@ -144,13 +117,186 @@
   </si>
   <si>
     <t>Ray Tracibility  Matrix</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_01_V01.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SW shall increment SecondsVar Variable with delay 1 sec. </t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_02_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall reset HoursVar to zero if it reaches 12 and the CycleLegnth flag will toggle.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_03_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall keep comparing the alarm variables with the time variable</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_04_V01.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If (Buzzer_state == 1) {the buzzer is enabled}
+else {it will be disabled}
+</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_05_V01.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SW shall start (SwHoursVar, SwMinutesVar, SwSecondsVar) with zeros.
+If (the user start  Stopwatch) {The SwSecondsVar Variable starts to increment with delay 1 sec} 
+</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_06_V01.0</t>
+  </si>
+  <si>
+    <t>If(the user press stop button) {The SW shall save the last values of the Stopwatch and displays it on the LCD without incrementing of any variable}</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_07_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall save the last values of the Stopwatch and Continue increment it when the user press to Play the Stopwatch again.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_08_V01.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If (the user press to reset the Stopwatch) 
+{ SwHoursVar = 0, SwMinutesVar = 0, SwSecondsVar = 0 and display them on the LCD}
+</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_09_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall start Current_Mode with zero</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_10_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall start SetCell with zero in Time display mode.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_11_V01.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SW shall compare the SetCell variable and If equal 0, the position on LCD will be in hours’ cell </t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_12_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall compare the SetCell variable and If equal 1, the position on LCD will be in minutes’ cell.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_13_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall compare the SetCell variable and If equal 2, the position on LCD will be in seconds cell.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_14_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall check SetCell value in Time display mode.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_15_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall start AlSetCell with zero in Alarm mode.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_16_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall compare the AlSetCell variable and If equal 0, the position on LCD will be in hours’ cell.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_17_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall compare the AlSetCell variable and If equal 1, the position on LCD will be in minutes’ cell.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_18_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall compare the AlSetCell variable and If equal 2, the position on LCD will be in seconds cell.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_19_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall check AlSetCell value in Alarm mode.</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_20_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall turn the Buzzer_Signal to zero if Current_Mode button is pressed</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_21_V01.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SW shall check Sig_Button2 
+First Press at Button2 -&gt; Start Stopwatch mode -&gt; Sig_SwStatus = 1
+Second Press at Button2 -&gt; Stop Stopwatch -&gt; Sig_SwStatus = 0 
+</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_22_V01.0</t>
+  </si>
+  <si>
+    <t>If (Sig_SWStatus == 1) {The SW shall start incrementing its values (SwHoursVar, SwMinutesVar, SwSecondsVar) and displays it on LCD.} in case of Stopwatch mode</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_23_V01.0</t>
+  </si>
+  <si>
+    <t>If (Sig_Button2 == 1 &amp;&amp; Sig_SWStatus == 1) {The SW shall stop incrementing its values (SwHoursVar, SwMinutesVar, SwSecondsVar) and keep it saved } in case of Stopwatch mode</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_24_V01.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SW will save SwHoursVar, SwMinutesVar and SwSecondsVar
+If (Sig_Button2 == 1) {resume incrementing}
+</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_25_V01.0</t>
+  </si>
+  <si>
+    <t>If (Sig_Button3 == 1) { Sig_SwReset=1}</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_26_V01.0</t>
+  </si>
+  <si>
+    <t>If (Sig_SwReset == 1) {SwHoursVar=0, SwMinutesVar=0 and SwSecondsVar = 0, Sig_SwReset=0}</t>
+  </si>
+  <si>
+    <t>Req_PO2_DGW_SRS_27_V01.0</t>
+  </si>
+  <si>
+    <t>The SW shall configure the pins according to the mapping of the configuration pins on the microcontoller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +364,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,14 +410,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -447,6 +595,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -456,38 +634,167 @@
       <top style="dashed">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -541,13 +848,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,16 +1165,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" hidden="1" customWidth="1"/>
@@ -866,12 +1203,12 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="25" t="s">
-        <v>39</v>
+      <c r="D2" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -921,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -981,25 +1318,25 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>1</v>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="8">
         <v>11</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
@@ -1009,24 +1346,24 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>2</v>
+      <c r="A10" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="11">
         <v>12</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
@@ -1036,24 +1373,24 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>3</v>
+      <c r="A11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="11">
         <v>13</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
@@ -1062,25 +1399,25 @@
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>4</v>
+    <row r="12" spans="1:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11">
         <v>14</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
@@ -1089,25 +1426,25 @@
       <c r="J12" s="11"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>5</v>
+    <row r="13" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E13" s="11">
         <v>15</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
@@ -1116,25 +1453,25 @@
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>6</v>
+    <row r="14" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E14" s="11">
         <v>16</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
@@ -1143,25 +1480,25 @@
       <c r="J14" s="11"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>7</v>
+    <row r="15" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E15" s="11">
         <v>17</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
@@ -1170,25 +1507,25 @@
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>8</v>
+    <row r="16" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E16" s="17">
         <v>18</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17" t="s">
@@ -1198,120 +1535,540 @@
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="25">
+        <v>19</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="65.400000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="26"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="20">
-        <v>19</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F26" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F27" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F28" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F29" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F30" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F31" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F32" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="C48" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="G51" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G53" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G55" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="35" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16 I17">
-      <formula1>$A$35:$A$40</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51">
+      <formula1>$F$26:$F$32</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D17">
-      <formula1>$C$35:$C$36</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I17">
+      <formula1>$A$46:$A$51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
-      <formula1>$F$26:$F$32</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D34 D35">
+      <formula1>$C$47:$C$48</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:I35">
+      <formula1>$A$45:$A$51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G35">
+      <formula1>$G$51:$G$57</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
